--- a/medicine/Mort/Monument_aux_morts_italiens_de_Lyon/Monument_aux_morts_italiens_de_Lyon.xlsx
+++ b/medicine/Mort/Monument_aux_morts_italiens_de_Lyon/Monument_aux_morts_italiens_de_Lyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument aux morts italiens de Lyon est un monument aux morts situé dans le nouveau cimetière de la Guillotière à Lyon en France.
 Il a été inauguré le 24 mai 1925 par Édouard Herriot.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il commémore les morts militaires italiennes au cours de la Première Guerre mondiale et à ce titre est propriété de l'Italie ; tout comme le carré italien à proximité immédiate regroupant 81 tombes de soldats italiens (décision du conseil municipal du 30 janvier 1922, Édouard Herriot)[1].
-Il est l’œuvre du sculpteur italien Vincenzo Pasquali[1] qui le fabriqua à San Remo[2] puis le fit transporter jusqu'à Lyon. L'inscription principale est la suivante[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commémore les morts militaires italiennes au cours de la Première Guerre mondiale et à ce titre est propriété de l'Italie ; tout comme le carré italien à proximité immédiate regroupant 81 tombes de soldats italiens (décision du conseil municipal du 30 janvier 1922, Édouard Herriot).
+Il est l’œuvre du sculpteur italien Vincenzo Pasquali qui le fabriqua à San Remo puis le fit transporter jusqu'à Lyon. L'inscription principale est la suivante :
 « ICI REPOSENT LES SOLDATS DE LA NATION ITALIENNE ALLIÉE MORTS DANS LES AMBULANCES LYONNAISES PENDANT LA GUERRE DE 1914-1918 - DANS UN TERRAIN CONCÉDÉ À PERPÉTUITÉ PAR LA VILLE DE LYON »
 La statue de la Grande Madre (Mère Patrie) est sculptée dans du marbre de Carrare et pèse plus de 12 tonnes.
 L'ensemble se trouve dans un carré de 300 m2 concédé à perpétuité au gouvernement italien.
@@ -551,9 +565,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monument est d'abord inscrit au titre des monuments historiques depuis 2019[1] puis sera classé par arrêté du 28 décembre 2021.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monument est d'abord inscrit au titre des monuments historiques depuis 2019 puis sera classé par arrêté du 28 décembre 2021.
 </t>
         </is>
       </c>
